--- a/content/doc/KALINA-V/Калина-V-калибровка.xlsx
+++ b/content/doc/KALINA-V/Калина-V-калибровка.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\SOURCETREE\Holdenberg\Kalina-1\kalina-1-sw\content\doc\KALINA-V\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976E7932-24F1-4D8F-B87F-02285CFF5398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA089E0C-92C6-4893-8710-505B3CD658E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{CDDDD6A9-03C4-4B8F-8FB9-559D796466AB}"/>
+    <workbookView minimized="1" xWindow="-23040" yWindow="1845" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{CDDDD6A9-03C4-4B8F-8FB9-559D796466AB}"/>
   </bookViews>
   <sheets>
     <sheet name="температупа" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="напряжение источника" sheetId="3" r:id="rId3"/>
     <sheet name="фазный ток и ШИМ" sheetId="4" r:id="rId4"/>
     <sheet name="теплоотвод" sheetId="5" r:id="rId5"/>
+    <sheet name="Лист1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>R</t>
   </si>
@@ -185,6 +186,18 @@
   </si>
   <si>
     <t>алюминиевый радиатор c дишманской  прокладкой и вентилятором</t>
+  </si>
+  <si>
+    <t>вт</t>
+  </si>
+  <si>
+    <t>плата</t>
+  </si>
+  <si>
+    <t>1мм/18</t>
+  </si>
+  <si>
+    <t>2мм.18</t>
   </si>
 </sst>
 </file>
@@ -10357,7 +10370,7 @@
   <dimension ref="B1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10455,31 +10468,31 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <f>C3*C4</f>
+        <f t="shared" ref="C5:I5" si="0">C3*C4</f>
         <v>6.4964999999999999E-5</v>
       </c>
       <c r="D5">
-        <f>D3*D4</f>
+        <f t="shared" si="0"/>
         <v>6.4964999999999999E-5</v>
       </c>
       <c r="E5">
-        <f>E3*E4</f>
+        <f t="shared" si="0"/>
         <v>6.4964999999999999E-5</v>
       </c>
       <c r="F5">
-        <f>F3*F4</f>
+        <f t="shared" si="0"/>
         <v>6.4964999999999999E-5</v>
       </c>
       <c r="G5">
-        <f>G3*G4</f>
+        <f t="shared" si="0"/>
         <v>6.4964999999999999E-5</v>
       </c>
       <c r="H5">
-        <f>H3*H4</f>
+        <f t="shared" si="0"/>
         <v>6.4964999999999999E-5</v>
       </c>
       <c r="I5">
-        <f>I3*I4</f>
+        <f t="shared" si="0"/>
         <v>6.4964999999999999E-5</v>
       </c>
     </row>
@@ -10540,31 +10553,31 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <f>C6*C7*C7</f>
+        <f t="shared" ref="C8:I8" si="1">C6*C7*C7</f>
         <v>30</v>
       </c>
       <c r="D8">
-        <f>D6*D7*D7</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="E8">
-        <f>E6*E7*E7</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="F8">
-        <f>F6*F7*F7</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="G8">
-        <f>G6*G7*G7</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="H8">
-        <f>H6*H7*H7</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="I8">
-        <f>I6*I7*I7</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -10625,31 +10638,31 @@
         <v>20</v>
       </c>
       <c r="C11">
-        <f>C8*C9/(C10*C5)</f>
+        <f t="shared" ref="C11:I11" si="2">C8*C9/(C10*C5)</f>
         <v>76.964519356576616</v>
       </c>
       <c r="D11">
-        <f>D8*D9/(D10*D5)</f>
+        <f t="shared" si="2"/>
         <v>25.654839785525542</v>
       </c>
       <c r="E11">
-        <f>E8*E9/(E10*E5)</f>
+        <f t="shared" si="2"/>
         <v>76.964519356576616</v>
       </c>
       <c r="F11">
-        <f>F8*F9/(F10*F5)</f>
+        <f t="shared" si="2"/>
         <v>25.654839785525542</v>
       </c>
       <c r="G11">
-        <f>G8*G9/(G10*G5)</f>
+        <f t="shared" si="2"/>
         <v>25.654839785525542</v>
       </c>
       <c r="H11">
-        <f>H8*H9/(H10*H5)</f>
+        <f t="shared" si="2"/>
         <v>76.964519356576616</v>
       </c>
       <c r="I11">
-        <f>I8*I9/(I10*I5)</f>
+        <f t="shared" si="2"/>
         <v>76.964519356576616</v>
       </c>
     </row>
@@ -10658,31 +10671,31 @@
         <v>21</v>
       </c>
       <c r="C12">
-        <f>125-C11</f>
+        <f t="shared" ref="C12:I12" si="3">125-C11</f>
         <v>48.035480643423384</v>
       </c>
       <c r="D12">
-        <f>125-D11</f>
+        <f t="shared" si="3"/>
         <v>99.345160214474461</v>
       </c>
       <c r="E12">
-        <f>125-E11</f>
+        <f t="shared" si="3"/>
         <v>48.035480643423384</v>
       </c>
       <c r="F12">
-        <f>125-F11</f>
+        <f t="shared" si="3"/>
         <v>99.345160214474461</v>
       </c>
       <c r="G12">
-        <f>125-G11</f>
+        <f t="shared" si="3"/>
         <v>99.345160214474461</v>
       </c>
       <c r="H12">
-        <f>125-H11</f>
+        <f t="shared" si="3"/>
         <v>48.035480643423384</v>
       </c>
       <c r="I12">
-        <f>125-I11</f>
+        <f t="shared" si="3"/>
         <v>48.035480643423384</v>
       </c>
     </row>
@@ -10849,19 +10862,19 @@
         <v>28</v>
       </c>
       <c r="C19">
-        <f>C12-25</f>
+        <f t="shared" ref="C19:I19" si="4">C12-25</f>
         <v>23.035480643423384</v>
       </c>
       <c r="D19">
-        <f>D12-25</f>
+        <f t="shared" si="4"/>
         <v>74.345160214474461</v>
       </c>
       <c r="E19">
-        <f>E12-25</f>
+        <f t="shared" si="4"/>
         <v>23.035480643423384</v>
       </c>
       <c r="F19">
-        <f>F12-25</f>
+        <f t="shared" si="4"/>
         <v>74.345160214474461</v>
       </c>
       <c r="G19">
@@ -10869,11 +10882,11 @@
         <v>74.345160214474461</v>
       </c>
       <c r="H19">
-        <f>H12-25</f>
+        <f t="shared" si="4"/>
         <v>23.035480643423384</v>
       </c>
       <c r="I19">
-        <f>I12-25</f>
+        <f t="shared" si="4"/>
         <v>23.035480643423384</v>
       </c>
     </row>
@@ -10908,31 +10921,31 @@
         <v>30</v>
       </c>
       <c r="C21">
-        <f>C20*C18*C19</f>
+        <f t="shared" ref="C21:I21" si="5">C20*C18*C19</f>
         <v>131.38862271992616</v>
       </c>
       <c r="D21">
-        <f>D20*D18*D19</f>
+        <f t="shared" si="5"/>
         <v>424.04620757330878</v>
       </c>
       <c r="E21">
-        <f>E20*E18*E19</f>
+        <f t="shared" si="5"/>
         <v>405.11492005310561</v>
       </c>
       <c r="F21">
-        <f>F20*F18*F19</f>
+        <f t="shared" si="5"/>
         <v>1307.4758066843688</v>
       </c>
       <c r="G21">
-        <f>G20*G18*G19</f>
+        <f t="shared" si="5"/>
         <v>1744.6330930330009</v>
       </c>
       <c r="H21">
-        <f>H20*H18*H19</f>
+        <f t="shared" si="5"/>
         <v>540.56594576566874</v>
       </c>
       <c r="I21">
-        <f>I20*I18*I19</f>
+        <f t="shared" si="5"/>
         <v>540.56594576566874</v>
       </c>
     </row>
@@ -11026,31 +11039,31 @@
         <v>34</v>
       </c>
       <c r="C25" s="4">
-        <f>C22*C24*C19</f>
+        <f t="shared" ref="C25:I25" si="6">C22*C24*C19</f>
         <v>0.18716328022781503</v>
       </c>
       <c r="D25" s="4">
-        <f>D22*D24*D19</f>
+        <f t="shared" si="6"/>
         <v>0.60405442674260512</v>
       </c>
       <c r="E25" s="4">
-        <f>E22*E24*E19</f>
+        <f t="shared" si="6"/>
         <v>3.9304288847841153</v>
       </c>
       <c r="F25" s="4">
-        <f>F22*F24*F19</f>
+        <f t="shared" si="6"/>
         <v>12.685142961594707</v>
       </c>
       <c r="G25" s="4">
-        <f>G22*G24*G19</f>
+        <f t="shared" si="6"/>
         <v>13.449039482798428</v>
       </c>
       <c r="H25" s="4">
-        <f>H22*H24*H19</f>
+        <f t="shared" si="6"/>
         <v>4.1671184483952892</v>
       </c>
       <c r="I25" s="4">
-        <f>I22*I24*I19</f>
+        <f t="shared" si="6"/>
         <v>20.835592241976446</v>
       </c>
     </row>
@@ -11059,31 +11072,31 @@
         <v>36</v>
       </c>
       <c r="C26">
-        <f>0.1/3</f>
+        <f t="shared" ref="C26:I26" si="7">0.1/3</f>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="D26">
-        <f>0.1/3</f>
+        <f t="shared" si="7"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="E26">
-        <f>0.1/3</f>
+        <f t="shared" si="7"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="F26">
-        <f>0.1/3</f>
+        <f t="shared" si="7"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="G26">
-        <f>0.1/3</f>
+        <f t="shared" si="7"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="H26">
-        <f>0.1/3</f>
+        <f t="shared" si="7"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="I26">
-        <f>0.1/3</f>
+        <f t="shared" si="7"/>
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
@@ -11092,31 +11105,31 @@
         <v>37</v>
       </c>
       <c r="C27">
-        <f>0.035/2</f>
+        <f t="shared" ref="C27:I27" si="8">0.035/2</f>
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="D27">
-        <f>0.035/2</f>
+        <f t="shared" si="8"/>
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="E27">
-        <f>0.035/2</f>
+        <f t="shared" si="8"/>
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="F27">
-        <f>0.035/2</f>
+        <f t="shared" si="8"/>
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="G27">
-        <f>0.035/2</f>
+        <f t="shared" si="8"/>
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="H27">
-        <f>0.035/2</f>
+        <f t="shared" si="8"/>
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="I27">
-        <f>0.035/2</f>
+        <f t="shared" si="8"/>
         <v>1.7500000000000002E-2</v>
       </c>
     </row>
@@ -11125,31 +11138,31 @@
         <v>38</v>
       </c>
       <c r="C28">
-        <f>C26*C27</f>
+        <f t="shared" ref="C28:I28" si="9">C26*C27</f>
         <v>5.8333333333333338E-4</v>
       </c>
       <c r="D28">
-        <f>D26*D27</f>
+        <f t="shared" si="9"/>
         <v>5.8333333333333338E-4</v>
       </c>
       <c r="E28">
-        <f>E26*E27</f>
+        <f t="shared" si="9"/>
         <v>5.8333333333333338E-4</v>
       </c>
       <c r="F28">
-        <f>F26*F27</f>
+        <f t="shared" si="9"/>
         <v>5.8333333333333338E-4</v>
       </c>
       <c r="G28">
-        <f>G26*G27</f>
+        <f t="shared" si="9"/>
         <v>5.8333333333333338E-4</v>
       </c>
       <c r="H28">
-        <f>H26*H27</f>
+        <f t="shared" si="9"/>
         <v>5.8333333333333338E-4</v>
       </c>
       <c r="I28">
-        <f>I26*I27</f>
+        <f t="shared" si="9"/>
         <v>5.8333333333333338E-4</v>
       </c>
     </row>
@@ -11191,31 +11204,31 @@
         <v>40</v>
       </c>
       <c r="C30">
-        <f>C22*C28*C29</f>
+        <f t="shared" ref="C30:I30" si="10">C22*C28*C29</f>
         <v>0.87500000000000011</v>
       </c>
       <c r="D30">
-        <f>D22*D28*D29</f>
+        <f t="shared" si="10"/>
         <v>0.87500000000000011</v>
       </c>
       <c r="E30">
-        <f>E22*E28*E29</f>
+        <f t="shared" si="10"/>
         <v>0.87500000000000011</v>
       </c>
       <c r="F30">
-        <f>F22*F28*F29</f>
+        <f t="shared" si="10"/>
         <v>0.87500000000000011</v>
       </c>
       <c r="G30">
-        <f>G22*G28*G29</f>
+        <f t="shared" si="10"/>
         <v>0.87500000000000011</v>
       </c>
       <c r="H30">
-        <f>H22*H28*H29</f>
+        <f t="shared" si="10"/>
         <v>0.87500000000000011</v>
       </c>
       <c r="I30">
-        <f>I22*I28*I29</f>
+        <f t="shared" si="10"/>
         <v>4.375</v>
       </c>
     </row>
@@ -11224,32 +11237,301 @@
         <v>41</v>
       </c>
       <c r="C31">
-        <f>C21/(C8-C30-C25)</f>
+        <f t="shared" ref="C31:I31" si="11">C21/(C8-C30-C25)</f>
         <v>4.540374734720686</v>
       </c>
       <c r="D31">
-        <f>D21/(D8-D30-D25)</f>
+        <f t="shared" si="11"/>
         <v>14.867887408716028</v>
       </c>
       <c r="E31">
-        <f>E21/(E8-E30-E25)</f>
+        <f t="shared" si="11"/>
         <v>16.079452918666373</v>
       </c>
       <c r="F31">
-        <f>F21/(F8-F30-F25)</f>
+        <f t="shared" si="11"/>
         <v>79.530850154594603</v>
       </c>
       <c r="G31">
-        <f>G21/(G8-G30-G25)</f>
+        <f t="shared" si="11"/>
         <v>111.29353707663253</v>
       </c>
       <c r="H31">
-        <f>H21/(H8-H30-H25)</f>
+        <f t="shared" si="11"/>
         <v>21.659127784862498</v>
       </c>
       <c r="I31">
-        <f>I21/(I8-I30-I25)</f>
+        <f t="shared" si="11"/>
         <v>112.8669708399905</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39998DD-C163-4EA5-ADC8-425A993CF065}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>A2*4.5</f>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="D2">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>28</v>
+      </c>
+      <c r="G2">
+        <v>29</v>
+      </c>
+      <c r="J2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <f>A3*4.5</f>
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>3.7</v>
+      </c>
+      <c r="D3">
+        <v>37</v>
+      </c>
+      <c r="E3">
+        <v>33</v>
+      </c>
+      <c r="G3">
+        <v>35</v>
+      </c>
+      <c r="J3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B7" si="0">A4*4.5</f>
+        <v>72</v>
+      </c>
+      <c r="C4">
+        <v>6.5</v>
+      </c>
+      <c r="D4">
+        <v>39</v>
+      </c>
+      <c r="E4">
+        <v>38</v>
+      </c>
+      <c r="G4">
+        <v>37</v>
+      </c>
+      <c r="J4">
+        <v>31</v>
+      </c>
+      <c r="K4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>41</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="G5">
+        <v>38</v>
+      </c>
+      <c r="J5">
+        <v>32</v>
+      </c>
+      <c r="K5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="C6">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>56</v>
+      </c>
+      <c r="E6">
+        <v>56</v>
+      </c>
+      <c r="G6">
+        <v>43</v>
+      </c>
+      <c r="H6">
+        <v>35</v>
+      </c>
+      <c r="J6">
+        <v>34</v>
+      </c>
+      <c r="K6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="C7">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>72</v>
+      </c>
+      <c r="E7">
+        <v>72</v>
+      </c>
+      <c r="G7">
+        <v>48</v>
+      </c>
+      <c r="H7">
+        <v>39</v>
+      </c>
+      <c r="J7">
+        <v>39</v>
+      </c>
+      <c r="K7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>46</v>
+      </c>
+      <c r="B8">
+        <f>A8*4.5</f>
+        <v>207</v>
+      </c>
+      <c r="C8">
+        <v>37</v>
+      </c>
+      <c r="G8">
+        <v>59</v>
+      </c>
+      <c r="H8">
+        <v>50</v>
+      </c>
+      <c r="J8">
+        <v>43</v>
+      </c>
+      <c r="K8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>76</v>
+      </c>
+      <c r="B9">
+        <f>A9*4.5</f>
+        <v>342</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>78</v>
+      </c>
+      <c r="H9">
+        <v>50</v>
+      </c>
+      <c r="J9">
+        <v>68</v>
+      </c>
+      <c r="K9">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <f>A10*4.5</f>
+        <v>405</v>
+      </c>
+      <c r="C10">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <f>A11*4.5</f>
+        <v>450</v>
+      </c>
+      <c r="C11">
+        <v>170</v>
+      </c>
+      <c r="J11">
+        <v>68</v>
+      </c>
+      <c r="K11">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/content/doc/KALINA-V/Калина-V-калибровка.xlsx
+++ b/content/doc/KALINA-V/Калина-V-калибровка.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\SOURCETREE\Holdenberg\Kalina-1\kalina-1-sw\content\doc\KALINA-V\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA089E0C-92C6-4893-8710-505B3CD658E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C69AE7-2DB6-475E-BEEC-5580CFA8E9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-23040" yWindow="1845" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{CDDDD6A9-03C4-4B8F-8FB9-559D796466AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{CDDDD6A9-03C4-4B8F-8FB9-559D796466AB}"/>
   </bookViews>
   <sheets>
     <sheet name="температупа" sheetId="1" r:id="rId1"/>
@@ -9225,8 +9225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41AD5BC3-6955-4143-938C-68655122FBFD}">
   <dimension ref="B24:R82"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81:N82"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9320,7 +9320,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="H33">
-        <f t="shared" si="0"/>
+        <f>G33*E33/2</f>
         <v>24.5</v>
       </c>
       <c r="I33">
@@ -10369,7 +10369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE01870-629C-4328-82C0-D409FBE6428C}">
   <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
